--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1488.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1488.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.365737662387905</v>
+        <v>1.519801735877991</v>
       </c>
       <c r="B1">
-        <v>2.112324372273759</v>
+        <v>4.256080150604248</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.492135524749756</v>
       </c>
       <c r="D1">
-        <v>1.9552605777381</v>
+        <v>1.448733568191528</v>
       </c>
       <c r="E1">
-        <v>0.7405509224928968</v>
+        <v>0.964720606803894</v>
       </c>
     </row>
   </sheetData>
